--- a/downloaded_files/CVES125_Lecture-35408.xlsx
+++ b/downloaded_files/CVES125_Lecture-35408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>shruok adel mohammed ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Khaled Elameer</x:t>
   </x:si>
   <x:si>
     <x:t>4230153</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1159,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45913.3969315972</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.3969315972</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4177059028</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4177059028</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35408.xlsx
+++ b/downloaded_files/CVES125_Lecture-35408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Abdelnasser Youssef Abdelazim korayem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد جاد مرشدي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1230322</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1342,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4177059028</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4177059028</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35408.xlsx
+++ b/downloaded_files/CVES125_Lecture-35408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -186,6 +186,15 @@
     <x:t>Omar Abdelnasser Youssef Abdelazim korayem</x:t>
   </x:si>
   <x:si>
+    <x:t>1220098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد عمر الصاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Omar Elsawy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230322</x:t>
   </x:si>
   <x:si>
@@ -204,6 +213,15 @@
     <x:t>Loay mohamed ahmed ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>4230174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد منير عبدالحميد كمال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Monir</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220201</x:t>
   </x:si>
   <x:si>
@@ -220,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Walid Gamal el din Zaki Abou Shebika</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي حسام الدين حفناوي مصطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hossameldin Hefnawi</x:t>
   </x:si>
   <x:si>
     <x:t>1240158</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1333,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45927.4461074074</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4177059028</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35408.xlsx
+++ b/downloaded_files/CVES125_Lecture-35408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Atef Kodsy Sorour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عمرو محمد عدلي عبدالحليم رسلان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Amr Mohamed Adly Abdelhaleem Raslan</x:t>
   </x:si>
   <x:si>
     <x:t>1230141</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -716,7 +725,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.400625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.910625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.760625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45928.6787663542</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35408.xlsx
+++ b/downloaded_files/CVES125_Lecture-35408.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Gloria Ayman</x:t>
   </x:si>
   <x:si>
+    <x:t>1240049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه عصام كامل على عقل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba essam kamel</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230148</x:t>
   </x:si>
   <x:si>
@@ -121,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Sabine Hatem Mohamed Elmahdy Elhabashy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سارة احمد رفعت محفوظ محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARA</x:t>
   </x:si>
   <x:si>
     <x:t>1220322</x:t>
@@ -416,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1063,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45933.6282729977</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45933.6289573727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.3969315972</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6652480671</x:v>
+        <x:v>45913.3969315972</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4461074074</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45907.6652480671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.4238710995</x:v>
+        <x:v>45927.4461074074</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4142504282</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45913.4238710995</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45927.4142504282</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45928.6787663542</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1770,70 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45928.6787663542</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Lecture-35408.xlsx
+++ b/downloaded_files/CVES125_Lecture-35408.xlsx
@@ -1840,11 +1840,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(9:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(9:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Civil Engineering (CVES125) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(9:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
